--- a/REPORTE-01-CHAVARIN-JORGE.xlsx
+++ b/REPORTE-01-CHAVARIN-JORGE.xlsx
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -537,7 +537,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>SSD Kingston A400</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -552,11 +552,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>SSD Adata Ultimate SU800</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -567,11 +567,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>Procesador AMD Ryzen 3 3200G con Gráficos Radeon Vega 8</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -582,11 +582,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>Tarjeta Madre ASUS micro ATX TUF B450M-PLUS GAMING</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -629,7 +629,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>SSD Adata Ultimate SU800</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -644,11 +644,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>Procesador AMD Ryzen 5 2600</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -659,11 +659,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>Procesador Intel Core i3-9100F</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -674,11 +674,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>Tarjeta de Video Gigabyte NVIDIA GeForce GT 1030</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -721,7 +721,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>Procesador AMD Ryzen 5 2600</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>Tarjeta de Video ASUS NVIDIA GeForce GTX 1660 SUPER EVO OC</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -751,7 +751,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>Tarjeta Madre ASRock Micro ATX B450M Steel Legend</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -766,11 +766,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>Procesador AMD Ryzen 5 3600</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -813,7 +813,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>SSD Kingston A400</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -828,11 +828,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>Procesador Intel Core i3-9100F</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -843,11 +843,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>Tarjeta Madre ASRock Micro ATX B450M Steel Legend</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -858,11 +858,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>Procesador AMD Ryzen 3 3200G con Gráficos Radeon Vega 8</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -905,7 +905,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>Procesador Intel Core i3-9100F</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -920,11 +920,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>Tarjeta Madre ASRock Micro ATX B450M Steel Legend</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -935,11 +935,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>Procesador AMD Ryzen 5 2600</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -950,11 +950,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>SSD Adata Ultimate SU800</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -997,7 +997,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>Procesador AMD Ryzen 3 3200G con Gráficos Radeon Vega 8</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1012,11 +1012,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>Procesador AMD Ryzen 5 3600</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1027,11 +1027,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>Procesador Intel Core i7-9700K</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1042,11 +1042,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>Tarjeta de Video ASUS AMD Radeon RX 570</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 3 3300X S-AM4</t>
+          <t>Procesador AMD Ryzen 5 2600</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 3 3300X S-AM4</t>
+          <t>SSD Kingston A400</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1119,11 +1119,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 3 3300X S-AM4</t>
+          <t>Procesador Intel Core i3-9100F</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1134,11 +1134,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 3 3300X S-AM4</t>
+          <t>Procesador Intel Core i7-9700K</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>SSD Kingston A2000 NVMe</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1410,11 +1410,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>SSD Kingston A400</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
@@ -1425,11 +1425,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>SSD Adata Ultimate SU800</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -1440,11 +1440,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>Procesador AMD Ryzen 3 3200G con Gráficos Radeon Vega 8</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -1455,11 +1455,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>Tarjeta Madre ASUS micro ATX TUF B450M-PLUS GAMING</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -1485,11 +1485,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>SSD Adata Ultimate SU800</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -1500,11 +1500,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>Procesador AMD Ryzen 5 2600</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -1515,11 +1515,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>Procesador Intel Core i3-9100F</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -1530,11 +1530,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>Tarjeta de Video Gigabyte NVIDIA GeForce GT 1030</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -1560,11 +1560,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>Procesador AMD Ryzen 5 2600</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -1575,11 +1575,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>Tarjeta de Video ASUS NVIDIA GeForce GTX 1660 SUPER EVO OC</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -1590,11 +1590,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>Tarjeta Madre ASRock Micro ATX B450M Steel Legend</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
@@ -1605,11 +1605,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>Procesador AMD Ryzen 5 3600</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>SSD Kingston A400</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -1650,11 +1650,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>Procesador Intel Core i3-9100F</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
@@ -1665,11 +1665,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>Tarjeta Madre ASRock Micro ATX B450M Steel Legend</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
@@ -1680,11 +1680,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>Procesador AMD Ryzen 3 3200G con Gráficos Radeon Vega 8</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -1710,11 +1710,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>Procesador Intel Core i3-9100F</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
@@ -1725,11 +1725,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>Tarjeta Madre ASRock Micro ATX B450M Steel Legend</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
@@ -1740,11 +1740,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>Procesador AMD Ryzen 5 2600</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -1755,11 +1755,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>SSD Adata Ultimate SU800</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>Procesador AMD Ryzen 3 3200G con Gráficos Radeon Vega 8</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -1800,11 +1800,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>Procesador AMD Ryzen 5 3600</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1815,11 +1815,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>Procesador Intel Core i7-9700K</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1830,11 +1830,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 5 2600</t>
+          <t>Tarjeta de Video ASUS AMD Radeon RX 570</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 3 3300X S-AM4</t>
+          <t>Procesador AMD Ryzen 5 2600</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 3 3300X S-AM4</t>
+          <t>SSD Kingston A400</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -1890,11 +1890,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 3 3300X S-AM4</t>
+          <t>Procesador Intel Core i3-9100F</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1905,11 +1905,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Procesador AMD Ryzen 3 3300X S-AM4</t>
+          <t>Procesador Intel Core i7-9700K</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1935,11 +1935,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SSD Kingston A400</t>
+          <t>SSD Kingston A2000 NVMe</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
